--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H2">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I2">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J2">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>6862.466366509335</v>
+        <v>5160.068697826822</v>
       </c>
       <c r="R2">
-        <v>61762.19729858402</v>
+        <v>46440.61828044139</v>
       </c>
       <c r="S2">
-        <v>0.07636388884288292</v>
+        <v>0.06522130558610609</v>
       </c>
       <c r="T2">
-        <v>0.08623003028162547</v>
+        <v>0.06968907791984411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H3">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I3">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J3">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>7343.827462769127</v>
+        <v>6259.788385025673</v>
       </c>
       <c r="R3">
-        <v>66094.44716492214</v>
+        <v>56338.09546523105</v>
       </c>
       <c r="S3">
-        <v>0.0817203603044354</v>
+        <v>0.07912134412785274</v>
       </c>
       <c r="T3">
-        <v>0.09227855273551279</v>
+        <v>0.08454129316330856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H4">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I4">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J4">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>3687.575685900586</v>
+        <v>3533.960753665484</v>
       </c>
       <c r="R4">
-        <v>33188.18117310527</v>
+        <v>31805.64678298935</v>
       </c>
       <c r="S4">
-        <v>0.0410344626462727</v>
+        <v>0.04466791970060276</v>
       </c>
       <c r="T4">
-        <v>0.04633607599343864</v>
+        <v>0.04772774952232434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H5">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I5">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J5">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>8403.428946836821</v>
+        <v>3854.050542632659</v>
       </c>
       <c r="R5">
-        <v>50420.57368102093</v>
+        <v>23124.30325579595</v>
       </c>
       <c r="S5">
-        <v>0.0935113528755593</v>
+        <v>0.04871373287941036</v>
       </c>
       <c r="T5">
-        <v>0.07039528685018208</v>
+        <v>0.03470047193824639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H6">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I6">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J6">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>4213.07946798795</v>
+        <v>3801.87662165974</v>
       </c>
       <c r="R6">
-        <v>37917.71521189155</v>
+        <v>34216.88959493766</v>
       </c>
       <c r="S6">
-        <v>0.04688214338649124</v>
+        <v>0.04805427436390005</v>
       </c>
       <c r="T6">
-        <v>0.05293927149522609</v>
+        <v>0.0513460753419937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J7">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>862.4781543124817</v>
+        <v>760.8274466348779</v>
       </c>
       <c r="R7">
-        <v>7762.303388812335</v>
+        <v>6847.447019713901</v>
       </c>
       <c r="S7">
-        <v>0.009597451176847757</v>
+        <v>0.009616569526713609</v>
       </c>
       <c r="T7">
-        <v>0.01083743269425094</v>
+        <v>0.01027532118601912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J8">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>922.9758540733266</v>
+        <v>922.9758540733264</v>
       </c>
       <c r="R8">
         <v>8306.782686659939</v>
       </c>
       <c r="S8">
-        <v>0.01027065514945057</v>
+        <v>0.01166606371974585</v>
       </c>
       <c r="T8">
-        <v>0.01159761397656736</v>
+        <v>0.0124652092790431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J9">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>463.4563291974123</v>
+        <v>521.0656086519831</v>
       </c>
       <c r="R9">
-        <v>4171.106962776711</v>
+        <v>4689.590477867848</v>
       </c>
       <c r="S9">
-        <v>0.005157231484453004</v>
+        <v>0.006586071093707348</v>
       </c>
       <c r="T9">
-        <v>0.005823540862209264</v>
+        <v>0.007037228364419295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J10">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>1056.147090692491</v>
+        <v>568.2613169060917</v>
       </c>
       <c r="R10">
-        <v>6336.882544154946</v>
+        <v>3409.56790143655</v>
       </c>
       <c r="S10">
-        <v>0.01175255290561078</v>
+        <v>0.007182606894033089</v>
       </c>
       <c r="T10">
-        <v>0.008847314337472777</v>
+        <v>0.005116418599798899</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J11">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>529.5019034636629</v>
+        <v>560.5685218292599</v>
       </c>
       <c r="R11">
-        <v>4765.517131172966</v>
+        <v>5045.116696463339</v>
       </c>
       <c r="S11">
-        <v>0.005892170881234012</v>
+        <v>0.007085372890398865</v>
       </c>
       <c r="T11">
-        <v>0.006653433726491964</v>
+        <v>0.007570733198498634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H12">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I12">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J12">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>4149.492161739496</v>
+        <v>5150.397594749733</v>
       </c>
       <c r="R12">
-        <v>37345.42945565547</v>
+        <v>46353.57835274759</v>
       </c>
       <c r="S12">
-        <v>0.04617455900984893</v>
+        <v>0.06509906652184495</v>
       </c>
       <c r="T12">
-        <v>0.0521402678935341</v>
+        <v>0.06955846526807961</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H13">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I13">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J13">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>4440.55429439259</v>
+        <v>6248.056165503509</v>
       </c>
       <c r="R13">
-        <v>39964.98864953331</v>
+        <v>56232.50548953158</v>
       </c>
       <c r="S13">
-        <v>0.04941342899583024</v>
+        <v>0.07897305333572034</v>
       </c>
       <c r="T13">
-        <v>0.05579759678551922</v>
+        <v>0.0843828441952169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H14">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I14">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J14">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>2229.747380495932</v>
+        <v>3527.337334342892</v>
       </c>
       <c r="R14">
-        <v>20067.72642446338</v>
+        <v>31746.03600908603</v>
       </c>
       <c r="S14">
-        <v>0.02481209699516698</v>
+        <v>0.04458420219973971</v>
       </c>
       <c r="T14">
-        <v>0.02801779620791643</v>
+        <v>0.04763829722773332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H15">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I15">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J15">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>5081.258061505247</v>
+        <v>3846.827204680238</v>
       </c>
       <c r="R15">
-        <v>30487.54836903148</v>
+        <v>23080.96322808143</v>
       </c>
       <c r="S15">
-        <v>0.05654302769110141</v>
+        <v>0.04862243263525954</v>
       </c>
       <c r="T15">
-        <v>0.04256555521113848</v>
+        <v>0.034635435625633</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H16">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I16">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J16">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>2547.501043432301</v>
+        <v>3794.75106910461</v>
       </c>
       <c r="R16">
-        <v>22927.50939089071</v>
+        <v>34152.75962194149</v>
       </c>
       <c r="S16">
-        <v>0.02834798396348948</v>
+        <v>0.04796421008997599</v>
       </c>
       <c r="T16">
-        <v>0.03201051639242901</v>
+        <v>0.05124984150940044</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H17">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I17">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J17">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>1509.428363227391</v>
+        <v>418.6879876692554</v>
       </c>
       <c r="R17">
-        <v>9056.570179364344</v>
+        <v>2512.127926015533</v>
       </c>
       <c r="S17">
-        <v>0.01679655878654926</v>
+        <v>0.005292056906240203</v>
       </c>
       <c r="T17">
-        <v>0.0126444387501116</v>
+        <v>0.003769714643408251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H18">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I18">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J18">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>1615.305762524335</v>
+        <v>507.9192459715849</v>
       </c>
       <c r="R18">
-        <v>9691.834575146011</v>
+        <v>3047.51547582951</v>
       </c>
       <c r="S18">
-        <v>0.01797473723130542</v>
+        <v>0.006419906069957735</v>
       </c>
       <c r="T18">
-        <v>0.01353137073247401</v>
+        <v>0.004573120499269006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H19">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I19">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J19">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>811.0977940832246</v>
+        <v>286.7455848170154</v>
       </c>
       <c r="R19">
-        <v>4866.586764499348</v>
+        <v>1720.473508902092</v>
       </c>
       <c r="S19">
-        <v>0.009025702783820653</v>
+        <v>0.003624355121607902</v>
       </c>
       <c r="T19">
-        <v>0.006794543303603569</v>
+        <v>0.002581753147576008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H20">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I20">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J20">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>1848.369569084477</v>
+        <v>312.7176711329563</v>
       </c>
       <c r="R20">
-        <v>7393.47827633791</v>
+        <v>1250.870684531825</v>
       </c>
       <c r="S20">
-        <v>0.02056821567869209</v>
+        <v>0.003952632413542816</v>
       </c>
       <c r="T20">
-        <v>0.01032249310323314</v>
+        <v>0.001877064256026494</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H21">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I21">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J21">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>926.68456293604</v>
+        <v>308.484279048435</v>
       </c>
       <c r="R21">
-        <v>5560.107377616239</v>
+        <v>1850.90567429061</v>
       </c>
       <c r="S21">
-        <v>0.01031192477704758</v>
+        <v>0.003899123947865479</v>
       </c>
       <c r="T21">
-        <v>0.00776281040039891</v>
+        <v>0.002777480458571835</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H22">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I22">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J22">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>6828.858395910535</v>
+        <v>6566.195745107861</v>
       </c>
       <c r="R22">
-        <v>61459.72556319481</v>
+        <v>59095.76170597075</v>
       </c>
       <c r="S22">
-        <v>0.07598990736246845</v>
+        <v>0.08299421660999019</v>
       </c>
       <c r="T22">
-        <v>0.08580773075144758</v>
+        <v>0.08867946411459343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H23">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I23">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J23">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>7307.862093429627</v>
+        <v>7965.590821754336</v>
       </c>
       <c r="R23">
-        <v>65770.75884086663</v>
+        <v>71690.31739578902</v>
       </c>
       <c r="S23">
-        <v>0.08132014625313772</v>
+        <v>0.100682038085718</v>
       </c>
       <c r="T23">
-        <v>0.09182663141137049</v>
+        <v>0.1075789319798438</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H24">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I24">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J24">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>3669.516298995985</v>
+        <v>4496.970762011209</v>
       </c>
       <c r="R24">
-        <v>33025.64669096387</v>
+        <v>40472.73685810088</v>
       </c>
       <c r="S24">
-        <v>0.04083350209645</v>
+        <v>0.05683999990241231</v>
       </c>
       <c r="T24">
-        <v>0.0461091515326863</v>
+        <v>0.06073363828839039</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H25">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I25">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J25">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>8362.274327215997</v>
+        <v>4904.285535020705</v>
       </c>
       <c r="R25">
-        <v>50173.64596329597</v>
+        <v>29425.71321012423</v>
       </c>
       <c r="S25">
-        <v>0.09305339408490741</v>
+        <v>0.0619883037014249</v>
       </c>
       <c r="T25">
-        <v>0.07005053576443528</v>
+        <v>0.04415640653972455</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H26">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I26">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J26">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>4192.4464997039</v>
+        <v>4837.89413638637</v>
       </c>
       <c r="R26">
-        <v>37732.0184973351</v>
+        <v>43541.04722747733</v>
       </c>
       <c r="S26">
-        <v>0.04665254463694671</v>
+        <v>0.06114914167622888</v>
       </c>
       <c r="T26">
-        <v>0.05268000880672443</v>
+        <v>0.06533796373303669</v>
       </c>
     </row>
   </sheetData>
